--- a/administratives/2020S_CE KT_Zeitaufzeichnung.xlsx
+++ b/administratives/2020S_CE KT_Zeitaufzeichnung.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\OneDrive\JKU\Lehre\CE KT\2020S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Dropbox\AAA OwnShare\JKU-Linz\4. Sem\CE KT Web\CEKT-Web\administratives\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A243F647-294F-4CBA-9247-A407B538FD6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" r:id="rId1"/>
-    <sheet name="Mitglied 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Mitglied 2" sheetId="6" r:id="rId3"/>
-    <sheet name="Mitglied 3" sheetId="7" r:id="rId4"/>
+    <sheet name="Deutsch Thomas" sheetId="2" r:id="rId2"/>
+    <sheet name="Bolda Stefan" sheetId="6" r:id="rId3"/>
+    <sheet name="Hinterhölzl Stefan" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjJgYUpBYv2IANWQMJ7M5OaVChMBA=="/>
     </ext>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>Name:</t>
   </si>
@@ -83,29 +90,47 @@
     <t xml:space="preserve">Zeitaufzeichnung - Gruppe </t>
   </si>
   <si>
-    <t>Mitglied 1</t>
+    <t>Endabgabe</t>
   </si>
   <si>
-    <t>Mitglied 2</t>
+    <t>Deutsch Thomas</t>
   </si>
   <si>
-    <t>Mitglied 3</t>
+    <t>Bolda Stefan</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>Hinterhölzl Stefan</t>
   </si>
   <si>
-    <t>Endabgabe</t>
+    <t>Projektidee entwickeln, Visual Code installieren und GitHub repository anlegen</t>
+  </si>
+  <si>
+    <t>k11808821</t>
+  </si>
+  <si>
+    <t>K11818868</t>
+  </si>
+  <si>
+    <t>Stefan Bolda</t>
+  </si>
+  <si>
+    <t>K11818867</t>
+  </si>
+  <si>
+    <t>Stefan Hinterhölzl</t>
+  </si>
+  <si>
+    <t>Lernvertrag erstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +171,18 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -185,17 +222,128 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -333,25 +481,25 @@
     </dxf>
   </dxfs>
   <tableStyles count="4">
-    <tableStyle name="Übersicht-style" pivot="0" count="3">
+    <tableStyle name="Übersicht-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+    </tableStyle>
+    <tableStyle name="David Haunschmied-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+    </tableStyle>
+    <tableStyle name="Christian Berer-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="David Haunschmied-style" pivot="0" count="3">
+    <tableStyle name="Florian Dorr-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="firstRowStripe" dxfId="10"/>
       <tableStyleElement type="secondRowStripe" dxfId="9"/>
-    </tableStyle>
-    <tableStyle name="Christian Berer-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
-    </tableStyle>
-    <tableStyle name="Florian Dorr-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -366,46 +514,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A3:E10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:E10">
   <tableColumns count="5">
-    <tableColumn id="1" name="Meilenstein"/>
-    <tableColumn id="2" name="Mitglied 1"/>
-    <tableColumn id="3" name="Mitglied 2"/>
-    <tableColumn id="4" name="Mitglied 3"/>
-    <tableColumn id="5" name="Summe"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Meilenstein"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Deutsch Thomas"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Bolda Stefan"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Hinterhölzl Stefan"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Summe"/>
   </tableColumns>
   <tableStyleInfo name="Übersicht-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_3" displayName="Table_3" ref="A4:G27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_3" displayName="Table_3" ref="A4:G27">
   <tableColumns count="7">
-    <tableColumn id="1" name="Datum"/>
-    <tableColumn id="2" name="Start"/>
-    <tableColumn id="3" name="Ende"/>
-    <tableColumn id="4" name="Tätigkeit"/>
-    <tableColumn id="6" name="Meilenstein"/>
-    <tableColumn id="7" name="Zeit"/>
-    <tableColumn id="8" name="Stunden" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Datum"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Start" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Ende" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tätigkeit"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Meilenstein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Zeit"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Stunden" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Christian Berer-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_33" displayName="Table_33" ref="A4:G27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_33" displayName="Table_33" ref="A4:G27">
   <tableColumns count="7">
-    <tableColumn id="1" name="Datum"/>
-    <tableColumn id="2" name="Start"/>
-    <tableColumn id="3" name="Ende"/>
-    <tableColumn id="4" name="Tätigkeit"/>
-    <tableColumn id="6" name="Meilenstein"/>
-    <tableColumn id="7" name="Zeit">
-      <calculatedColumnFormula>'Mitglied 2'!$C5-'Mitglied 2'!$B5</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Datum"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Start" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Ende" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tätigkeit"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Meilenstein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Zeit">
+      <calculatedColumnFormula>'Bolda Stefan'!$C5-'Bolda Stefan'!$B5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Stunden" dataDxfId="1">
-      <calculatedColumnFormula>'Mitglied 2'!$F5*24</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Stunden" dataDxfId="7">
+      <calculatedColumnFormula>'Bolda Stefan'!$F5*24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Christian Berer-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -413,18 +561,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_335" displayName="Table_335" ref="A4:G27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_335" displayName="Table_335" ref="A4:G27">
   <tableColumns count="7">
-    <tableColumn id="1" name="Datum"/>
-    <tableColumn id="2" name="Start"/>
-    <tableColumn id="3" name="Ende"/>
-    <tableColumn id="4" name="Tätigkeit"/>
-    <tableColumn id="6" name="Meilenstein"/>
-    <tableColumn id="7" name="Zeit">
-      <calculatedColumnFormula>'Mitglied 3'!$C5-'Mitglied 3'!$B5</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Datum"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Start" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Ende" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tätigkeit"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Meilenstein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Zeit">
+      <calculatedColumnFormula>'Hinterhölzl Stefan'!$C5-'Hinterhölzl Stefan'!$B5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Stunden" dataDxfId="0">
-      <calculatedColumnFormula>'Mitglied 3'!$F5*24</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Stunden" dataDxfId="6">
+      <calculatedColumnFormula>'Hinterhölzl Stefan'!$F5*24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Christian Berer-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -628,11 +776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -658,13 +806,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>4</v>
@@ -675,20 +823,20 @@
         <v>5</v>
       </c>
       <c r="B4" s="7">
-        <f>SUMIF('Mitglied 1'!$E$5:$E$27,Übersicht!$A4,'Mitglied 1'!$G$5:$G$27)</f>
-        <v>0</v>
+        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A4,'Deutsch Thomas'!$G$5:$G$27)</f>
+        <v>5.0000000000000009</v>
       </c>
       <c r="C4" s="7">
-        <f>SUMIF('Mitglied 2'!$F$5:$F$32,Übersicht!$A4,'Mitglied 2'!$H$5:$H$32)</f>
-        <v>0</v>
+        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A4,'Bolda Stefan'!$G$5:$G$27)</f>
+        <v>5.0000000000000009</v>
       </c>
       <c r="D4" s="7">
-        <f>SUMIF('Mitglied 3'!$E$5:$E$31,Übersicht!$A4,'Mitglied 3'!$G$5:$G$31)</f>
-        <v>0</v>
+        <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A4,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
+        <v>5.0000000000000009</v>
       </c>
       <c r="E4" s="7">
         <f>SUM(Übersicht!$B4:$D4)</f>
-        <v>0</v>
+        <v>15.000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,15 +844,15 @@
         <v>13</v>
       </c>
       <c r="B5" s="7">
-        <f>SUMIF('Mitglied 1'!$E$5:$E$27,Übersicht!$A5,'Mitglied 1'!$G$5:$G$27)</f>
+        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A5,'Deutsch Thomas'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="C5" s="7">
-        <f>SUMIF('Mitglied 2'!$F$5:$F$32,Übersicht!$A5,'Mitglied 2'!$H$5:$H$32)</f>
+        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A5,'Bolda Stefan'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <f>SUMIF('Mitglied 3'!$E$5:$E$31,Übersicht!$A5,'Mitglied 3'!$G$5:$G$31)</f>
+        <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A5,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
         <v>0</v>
       </c>
       <c r="E5" s="7">
@@ -717,15 +865,15 @@
         <v>14</v>
       </c>
       <c r="B6" s="7">
-        <f>SUMIF('Mitglied 1'!$E$5:$E$27,Übersicht!$A6,'Mitglied 1'!$G$5:$G$27)</f>
+        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A6,'Deutsch Thomas'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="C6" s="7">
-        <f>SUMIF('Mitglied 2'!$F$5:$F$32,Übersicht!$A6,'Mitglied 2'!$H$5:$H$32)</f>
+        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A6,'Bolda Stefan'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="D6" s="7">
-        <f>SUMIF('Mitglied 3'!$E$5:$E$31,Übersicht!$A6,'Mitglied 3'!$G$5:$G$31)</f>
+        <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A6,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
         <v>0</v>
       </c>
       <c r="E6" s="7">
@@ -738,15 +886,15 @@
         <v>15</v>
       </c>
       <c r="B7" s="7">
-        <f>SUMIF('Mitglied 1'!$E$5:$E$27,Übersicht!$A7,'Mitglied 1'!$G$5:$G$27)</f>
+        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A7,'Deutsch Thomas'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="C7" s="7">
-        <f>SUMIF('Mitglied 2'!$F$5:$F$32,Übersicht!$A7,'Mitglied 2'!$H$5:$H$32)</f>
+        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A7,'Bolda Stefan'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="D7" s="7">
-        <f>SUMIF('Mitglied 3'!$E$5:$E$31,Übersicht!$A7,'Mitglied 3'!$G$5:$G$31)</f>
+        <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A7,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
         <v>0</v>
       </c>
       <c r="E7" s="7">
@@ -759,15 +907,15 @@
         <v>16</v>
       </c>
       <c r="B8" s="7">
-        <f>SUMIF('Mitglied 1'!$E$5:$E$27,Übersicht!$A8,'Mitglied 1'!$G$5:$G$27)</f>
+        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A8,'Deutsch Thomas'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="C8" s="7">
-        <f>SUMIF('Mitglied 2'!$F$5:$F$32,Übersicht!$A8,'Mitglied 2'!$H$5:$H$32)</f>
+        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A8,'Bolda Stefan'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="D8" s="7">
-        <f>SUMIF('Mitglied 3'!$E$5:$E$31,Übersicht!$A8,'Mitglied 3'!$G$5:$G$31)</f>
+        <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A8,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
         <v>0</v>
       </c>
       <c r="E8" s="7">
@@ -777,18 +925,18 @@
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="7">
-        <f>SUMIF('Mitglied 1'!$E$5:$E$27,Übersicht!$A9,'Mitglied 1'!$G$5:$G$27)</f>
+        <f>SUMIF('Deutsch Thomas'!$E$5:$E$27,Übersicht!$A9,'Deutsch Thomas'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <f>SUMIF('Mitglied 2'!$F$5:$F$32,Übersicht!$A9,'Mitglied 2'!$H$5:$H$32)</f>
+        <f>SUMIF('Bolda Stefan'!$E$5:$E$27,Übersicht!$A9,'Bolda Stefan'!$G$5:$G$27)</f>
         <v>0</v>
       </c>
       <c r="D9" s="7">
-        <f>SUMIF('Mitglied 3'!$E$5:$E$31,Übersicht!$A9,'Mitglied 3'!$G$5:$G$31)</f>
+        <f>SUMIF('Hinterhölzl Stefan'!$E$5:$E$31,Übersicht!$A9,'Hinterhölzl Stefan'!$G$5:$G$31)</f>
         <v>0</v>
       </c>
       <c r="E9" s="7">
@@ -802,19 +950,19 @@
       </c>
       <c r="B10" s="12">
         <f t="shared" ref="B10:D10" si="0">SUM(B4:B9)</f>
-        <v>0</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.0000000000000009</v>
       </c>
       <c r="E10" s="12">
         <f>SUM(Übersicht!$B10:$D10)</f>
-        <v>0</v>
+        <v>15.000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1817,19 +1965,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="55.25" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="7" max="7" width="8.875" hidden="1" customWidth="1"/>
@@ -1841,14 +1989,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5">
-        <f>SUM('Mitglied 1'!$G$5:$G$27)</f>
-        <v>0</v>
+        <f>SUM('Deutsch Thomas'!$G$5:$G$27)</f>
+        <v>5.0000000000000009</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1856,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1900,18 +2048,28 @@
       <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="9">
+        <v>43901</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.34375</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="10">
-        <f>'Mitglied 1'!$C5-'Mitglied 1'!$B5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <f>'Mitglied 1'!$F5*24</f>
-        <v>0</v>
+        <f>'Deutsch Thomas'!$C5-'Deutsch Thomas'!$B5</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="G5" s="19">
+        <f>'Deutsch Thomas'!$F5*24</f>
+        <v>5.0000000000000009</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1931,17 +2089,23 @@
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9">
+        <v>43907</v>
+      </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="10">
-        <f>'Mitglied 1'!$C6-'Mitglied 1'!$B6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <f>'Mitglied 1'!$F6*24</f>
+        <f>'Deutsch Thomas'!$C6-'Deutsch Thomas'!$B6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <f>'Deutsch Thomas'!$F6*24</f>
         <v>0</v>
       </c>
       <c r="H6" s="8"/>
@@ -1968,11 +2132,11 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="10">
-        <f>'Mitglied 1'!$C7-'Mitglied 1'!$B7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <f>'Mitglied 1'!$F7*24</f>
+        <f>'Deutsch Thomas'!$C7-'Deutsch Thomas'!$B7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <f>'Deutsch Thomas'!$F7*24</f>
         <v>0</v>
       </c>
       <c r="H7" s="8"/>
@@ -1999,11 +2163,11 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10">
-        <f>'Mitglied 1'!$C8-'Mitglied 1'!$B8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <f>'Mitglied 1'!$F8*24</f>
+        <f>'Deutsch Thomas'!$C8-'Deutsch Thomas'!$B8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <f>'Deutsch Thomas'!$F8*24</f>
         <v>0</v>
       </c>
       <c r="Q8" s="3"/>
@@ -2021,11 +2185,11 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="10">
-        <f>'Mitglied 1'!$C9-'Mitglied 1'!$B9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <f>'Mitglied 1'!$F9*24</f>
+        <f>'Deutsch Thomas'!$C9-'Deutsch Thomas'!$B9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <f>'Deutsch Thomas'!$F9*24</f>
         <v>0</v>
       </c>
       <c r="H9" s="14"/>
@@ -2052,11 +2216,11 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="10">
-        <f>'Mitglied 1'!$C10-'Mitglied 1'!$B10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <f>'Mitglied 1'!$F10*24</f>
+        <f>'Deutsch Thomas'!$C10-'Deutsch Thomas'!$B10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <f>'Deutsch Thomas'!$F10*24</f>
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
@@ -2083,11 +2247,11 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="10">
-        <f>'Mitglied 1'!$C11-'Mitglied 1'!$B11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <f>'Mitglied 1'!$F11*24</f>
+        <f>'Deutsch Thomas'!$C11-'Deutsch Thomas'!$B11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <f>'Deutsch Thomas'!$F11*24</f>
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
@@ -2114,11 +2278,11 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="10">
-        <f>'Mitglied 1'!$C12-'Mitglied 1'!$B12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <f>'Mitglied 1'!$F12*24</f>
+        <f>'Deutsch Thomas'!$C12-'Deutsch Thomas'!$B12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <f>'Deutsch Thomas'!$F12*24</f>
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
@@ -2145,11 +2309,11 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="10">
-        <f>'Mitglied 1'!$C13-'Mitglied 1'!$B13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <f>'Mitglied 1'!$F13*24</f>
+        <f>'Deutsch Thomas'!$C13-'Deutsch Thomas'!$B13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <f>'Deutsch Thomas'!$F13*24</f>
         <v>0</v>
       </c>
       <c r="H13" s="14"/>
@@ -2176,11 +2340,11 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="10">
-        <f>'Mitglied 1'!$C14-'Mitglied 1'!$B14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <f>'Mitglied 1'!$F14*24</f>
+        <f>'Deutsch Thomas'!$C14-'Deutsch Thomas'!$B14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <f>'Deutsch Thomas'!$F14*24</f>
         <v>0</v>
       </c>
       <c r="H14" s="8"/>
@@ -2207,11 +2371,11 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="10">
-        <f>'Mitglied 1'!$C15-'Mitglied 1'!$B15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <f>'Mitglied 1'!$F15*24</f>
+        <f>'Deutsch Thomas'!$C15-'Deutsch Thomas'!$B15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <f>'Deutsch Thomas'!$F15*24</f>
         <v>0</v>
       </c>
       <c r="H15" s="14"/>
@@ -2238,11 +2402,11 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="10">
-        <f>'Mitglied 1'!$C16-'Mitglied 1'!$B16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <f>'Mitglied 1'!$F16*24</f>
+        <f>'Deutsch Thomas'!$C16-'Deutsch Thomas'!$B16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <f>'Deutsch Thomas'!$F16*24</f>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
@@ -2269,11 +2433,11 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="10">
-        <f>'Mitglied 1'!$C17-'Mitglied 1'!$B17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <f>'Mitglied 1'!$F17*24</f>
+        <f>'Deutsch Thomas'!$C17-'Deutsch Thomas'!$B17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <f>'Deutsch Thomas'!$F17*24</f>
         <v>0</v>
       </c>
       <c r="H17" s="3"/>
@@ -2300,11 +2464,11 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="10">
-        <f>'Mitglied 1'!$C18-'Mitglied 1'!$B18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="20">
-        <f>'Mitglied 1'!$F18*24</f>
+        <f>'Deutsch Thomas'!$C18-'Deutsch Thomas'!$B18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <f>'Deutsch Thomas'!$F18*24</f>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
@@ -2331,11 +2495,11 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="10">
-        <f>'Mitglied 1'!$C19-'Mitglied 1'!$B19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="20">
-        <f>'Mitglied 1'!$F19*24</f>
+        <f>'Deutsch Thomas'!$C19-'Deutsch Thomas'!$B19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <f>'Deutsch Thomas'!$F19*24</f>
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
@@ -2362,11 +2526,11 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="10">
-        <f>'Mitglied 1'!$C20-'Mitglied 1'!$B20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="20">
-        <f>'Mitglied 1'!$F20*24</f>
+        <f>'Deutsch Thomas'!$C20-'Deutsch Thomas'!$B20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <f>'Deutsch Thomas'!$F20*24</f>
         <v>0</v>
       </c>
       <c r="H20" s="8"/>
@@ -2393,11 +2557,11 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="10">
-        <f>'Mitglied 1'!$C21-'Mitglied 1'!$B21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
-        <f>'Mitglied 1'!$F21*24</f>
+        <f>'Deutsch Thomas'!$C21-'Deutsch Thomas'!$B21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <f>'Deutsch Thomas'!$F21*24</f>
         <v>0</v>
       </c>
       <c r="H21" s="8"/>
@@ -2424,11 +2588,11 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="10">
-        <f>'Mitglied 1'!$C22-'Mitglied 1'!$B22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="20">
-        <f>'Mitglied 1'!$F22*24</f>
+        <f>'Deutsch Thomas'!$C22-'Deutsch Thomas'!$B22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <f>'Deutsch Thomas'!$F22*24</f>
         <v>0</v>
       </c>
       <c r="H22" s="8"/>
@@ -2455,11 +2619,11 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="10">
-        <f>'Mitglied 1'!$C23-'Mitglied 1'!$B23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="20">
-        <f>'Mitglied 1'!$F23*24</f>
+        <f>'Deutsch Thomas'!$C23-'Deutsch Thomas'!$B23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <f>'Deutsch Thomas'!$F23*24</f>
         <v>0</v>
       </c>
       <c r="H23" s="8"/>
@@ -2486,11 +2650,11 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="10">
-        <f>'Mitglied 1'!$C24-'Mitglied 1'!$B24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <f>'Mitglied 1'!$F24*24</f>
+        <f>'Deutsch Thomas'!$C24-'Deutsch Thomas'!$B24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <f>'Deutsch Thomas'!$F24*24</f>
         <v>0</v>
       </c>
       <c r="H24" s="8"/>
@@ -2517,11 +2681,11 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="10">
-        <f>'Mitglied 1'!$C25-'Mitglied 1'!$B25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="20">
-        <f>'Mitglied 1'!$F25*24</f>
+        <f>'Deutsch Thomas'!$C25-'Deutsch Thomas'!$B25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <f>'Deutsch Thomas'!$F25*24</f>
         <v>0</v>
       </c>
       <c r="H25" s="8"/>
@@ -2543,16 +2707,16 @@
     </row>
     <row r="26" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="6"/>
       <c r="F26" s="10">
-        <f>'Mitglied 1'!$C26-'Mitglied 1'!$B26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <f>'Mitglied 1'!$F26*24</f>
+        <f>'Deutsch Thomas'!$C26-'Deutsch Thomas'!$B26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <f>'Deutsch Thomas'!$F26*24</f>
         <v>0</v>
       </c>
       <c r="H26" s="8"/>
@@ -2574,16 +2738,16 @@
     </row>
     <row r="27" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="10">
-        <f>'Mitglied 1'!$C27-'Mitglied 1'!$B27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="20">
-        <f>'Mitglied 1'!$F27*24</f>
+        <f>'Deutsch Thomas'!$C27-'Deutsch Thomas'!$B27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <f>'Deutsch Thomas'!$F27*24</f>
         <v>0</v>
       </c>
       <c r="H27" s="8"/>
@@ -3574,10 +3738,10 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8 W8 L13 S13 L15 S15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8 W8 L13 S13 L15 S15" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Messeunterlagen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E27" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Endabgabe"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3590,11 +3754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3602,7 +3766,7 @@
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="55.25" customWidth="1"/>
+    <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="7" max="7" width="8.875" hidden="1" customWidth="1"/>
@@ -3614,22 +3778,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5">
-        <f>SUM('Mitglied 2'!$G$5:$G$27)</f>
-        <v>0</v>
+        <f>SUM('Bolda Stefan'!$G$5:$G$27)</f>
+        <v>5.0000000000000009</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
+      <c r="B2" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3673,18 +3837,28 @@
       <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="9">
+        <v>43901</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.34375</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="10">
-        <f>'Mitglied 2'!$C5-'Mitglied 2'!$B5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <f>'Mitglied 2'!$F5*24</f>
-        <v>0</v>
+        <f>'Bolda Stefan'!$C5-'Bolda Stefan'!$B5</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="G5" s="19">
+        <f>'Bolda Stefan'!$F5*24</f>
+        <v>5.0000000000000009</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -3704,17 +3878,23 @@
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9">
+        <v>43907</v>
+      </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="10">
-        <f>'Mitglied 2'!$C6-'Mitglied 2'!$B6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <f>'Mitglied 2'!$F6*24</f>
+        <f>'Bolda Stefan'!$C6-'Bolda Stefan'!$B6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <f>'Bolda Stefan'!$F6*24</f>
         <v>0</v>
       </c>
       <c r="H6" s="8"/>
@@ -3741,11 +3921,11 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="10">
-        <f>'Mitglied 2'!$C7-'Mitglied 2'!$B7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <f>'Mitglied 2'!$F7*24</f>
+        <f>'Bolda Stefan'!$C7-'Bolda Stefan'!$B7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <f>'Bolda Stefan'!$F7*24</f>
         <v>0</v>
       </c>
       <c r="H7" s="8"/>
@@ -3772,11 +3952,11 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10">
-        <f>'Mitglied 2'!$C8-'Mitglied 2'!$B8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <f>'Mitglied 2'!$F8*24</f>
+        <f>'Bolda Stefan'!$C8-'Bolda Stefan'!$B8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <f>'Bolda Stefan'!$F8*24</f>
         <v>0</v>
       </c>
       <c r="Q8" s="6"/>
@@ -3794,11 +3974,11 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="10">
-        <f>'Mitglied 2'!$C9-'Mitglied 2'!$B9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <f>'Mitglied 2'!$F9*24</f>
+        <f>'Bolda Stefan'!$C9-'Bolda Stefan'!$B9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <f>'Bolda Stefan'!$F9*24</f>
         <v>0</v>
       </c>
       <c r="H9" s="14"/>
@@ -3825,11 +4005,11 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="10">
-        <f>'Mitglied 2'!$C10-'Mitglied 2'!$B10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <f>'Mitglied 2'!$F10*24</f>
+        <f>'Bolda Stefan'!$C10-'Bolda Stefan'!$B10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <f>'Bolda Stefan'!$F10*24</f>
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
@@ -3856,11 +4036,11 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="10">
-        <f>'Mitglied 2'!$C11-'Mitglied 2'!$B11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <f>'Mitglied 2'!$F11*24</f>
+        <f>'Bolda Stefan'!$C11-'Bolda Stefan'!$B11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <f>'Bolda Stefan'!$F11*24</f>
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
@@ -3887,11 +4067,11 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="10">
-        <f>'Mitglied 2'!$C12-'Mitglied 2'!$B12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <f>'Mitglied 2'!$F12*24</f>
+        <f>'Bolda Stefan'!$C12-'Bolda Stefan'!$B12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <f>'Bolda Stefan'!$F12*24</f>
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
@@ -3918,11 +4098,11 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="10">
-        <f>'Mitglied 2'!$C13-'Mitglied 2'!$B13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <f>'Mitglied 2'!$F13*24</f>
+        <f>'Bolda Stefan'!$C13-'Bolda Stefan'!$B13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <f>'Bolda Stefan'!$F13*24</f>
         <v>0</v>
       </c>
       <c r="H13" s="14"/>
@@ -3949,11 +4129,11 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="10">
-        <f>'Mitglied 2'!$C14-'Mitglied 2'!$B14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <f>'Mitglied 2'!$F14*24</f>
+        <f>'Bolda Stefan'!$C14-'Bolda Stefan'!$B14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <f>'Bolda Stefan'!$F14*24</f>
         <v>0</v>
       </c>
       <c r="H14" s="8"/>
@@ -3980,11 +4160,11 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="10">
-        <f>'Mitglied 2'!$C15-'Mitglied 2'!$B15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <f>'Mitglied 2'!$F15*24</f>
+        <f>'Bolda Stefan'!$C15-'Bolda Stefan'!$B15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <f>'Bolda Stefan'!$F15*24</f>
         <v>0</v>
       </c>
       <c r="H15" s="14"/>
@@ -4011,11 +4191,11 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="10">
-        <f>'Mitglied 2'!$C16-'Mitglied 2'!$B16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <f>'Mitglied 2'!$F16*24</f>
+        <f>'Bolda Stefan'!$C16-'Bolda Stefan'!$B16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <f>'Bolda Stefan'!$F16*24</f>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
@@ -4042,11 +4222,11 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="10">
-        <f>'Mitglied 2'!$C17-'Mitglied 2'!$B17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <f>'Mitglied 2'!$F17*24</f>
+        <f>'Bolda Stefan'!$C17-'Bolda Stefan'!$B17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <f>'Bolda Stefan'!$F17*24</f>
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
@@ -4073,11 +4253,11 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="10">
-        <f>'Mitglied 2'!$C18-'Mitglied 2'!$B18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="20">
-        <f>'Mitglied 2'!$F18*24</f>
+        <f>'Bolda Stefan'!$C18-'Bolda Stefan'!$B18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <f>'Bolda Stefan'!$F18*24</f>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
@@ -4104,11 +4284,11 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="10">
-        <f>'Mitglied 2'!$C19-'Mitglied 2'!$B19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="20">
-        <f>'Mitglied 2'!$F19*24</f>
+        <f>'Bolda Stefan'!$C19-'Bolda Stefan'!$B19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <f>'Bolda Stefan'!$F19*24</f>
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
@@ -4135,11 +4315,11 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="10">
-        <f>'Mitglied 2'!$C20-'Mitglied 2'!$B20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="20">
-        <f>'Mitglied 2'!$F20*24</f>
+        <f>'Bolda Stefan'!$C20-'Bolda Stefan'!$B20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <f>'Bolda Stefan'!$F20*24</f>
         <v>0</v>
       </c>
       <c r="H20" s="8"/>
@@ -4166,11 +4346,11 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="10">
-        <f>'Mitglied 2'!$C21-'Mitglied 2'!$B21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
-        <f>'Mitglied 2'!$F21*24</f>
+        <f>'Bolda Stefan'!$C21-'Bolda Stefan'!$B21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <f>'Bolda Stefan'!$F21*24</f>
         <v>0</v>
       </c>
       <c r="H21" s="8"/>
@@ -4197,11 +4377,11 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="10">
-        <f>'Mitglied 2'!$C22-'Mitglied 2'!$B22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="20">
-        <f>'Mitglied 2'!$F22*24</f>
+        <f>'Bolda Stefan'!$C22-'Bolda Stefan'!$B22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <f>'Bolda Stefan'!$F22*24</f>
         <v>0</v>
       </c>
       <c r="H22" s="8"/>
@@ -4228,11 +4408,11 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="10">
-        <f>'Mitglied 2'!$C23-'Mitglied 2'!$B23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="20">
-        <f>'Mitglied 2'!$F23*24</f>
+        <f>'Bolda Stefan'!$C23-'Bolda Stefan'!$B23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <f>'Bolda Stefan'!$F23*24</f>
         <v>0</v>
       </c>
       <c r="H23" s="8"/>
@@ -4259,11 +4439,11 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="10">
-        <f>'Mitglied 2'!$C24-'Mitglied 2'!$B24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <f>'Mitglied 2'!$F24*24</f>
+        <f>'Bolda Stefan'!$C24-'Bolda Stefan'!$B24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <f>'Bolda Stefan'!$F24*24</f>
         <v>0</v>
       </c>
       <c r="H24" s="8"/>
@@ -4290,11 +4470,11 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="10">
-        <f>'Mitglied 2'!$C25-'Mitglied 2'!$B25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="20">
-        <f>'Mitglied 2'!$F25*24</f>
+        <f>'Bolda Stefan'!$C25-'Bolda Stefan'!$B25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <f>'Bolda Stefan'!$F25*24</f>
         <v>0</v>
       </c>
       <c r="H25" s="8"/>
@@ -4316,16 +4496,16 @@
     </row>
     <row r="26" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="6"/>
       <c r="F26" s="10">
-        <f>'Mitglied 2'!$C26-'Mitglied 2'!$B26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <f>'Mitglied 2'!$F26*24</f>
+        <f>'Bolda Stefan'!$C26-'Bolda Stefan'!$B26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <f>'Bolda Stefan'!$F26*24</f>
         <v>0</v>
       </c>
       <c r="H26" s="8"/>
@@ -4347,16 +4527,16 @@
     </row>
     <row r="27" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="10">
-        <f>'Mitglied 2'!$C27-'Mitglied 2'!$B27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="20">
-        <f>'Mitglied 2'!$F27*24</f>
+        <f>'Bolda Stefan'!$C27-'Bolda Stefan'!$B27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <f>'Bolda Stefan'!$F27*24</f>
         <v>0</v>
       </c>
       <c r="H27" s="8"/>
@@ -5347,10 +5527,10 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E27" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Endabgabe"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8 W8 L13 S13 L15 S15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8 W8 L13 S13 L15 S15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Messeunterlagen"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5363,11 +5543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5375,7 +5555,7 @@
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="55.25" customWidth="1"/>
+    <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
     <col min="6" max="6" width="8.875" customWidth="1"/>
     <col min="7" max="7" width="8.875" hidden="1" customWidth="1"/>
@@ -5387,22 +5567,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5">
-        <f>SUM('Mitglied 3'!$G$5:$G$27)</f>
-        <v>0</v>
+        <f>SUM('Hinterhölzl Stefan'!$G$5:$G$27)</f>
+        <v>5.0000000000000009</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
+      <c r="B2" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5446,18 +5626,28 @@
       <c r="W4" s="8"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="9">
+        <v>43901</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.34375</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="10">
-        <f>'Mitglied 3'!$C5-'Mitglied 3'!$B5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
-        <f>'Mitglied 3'!$F5*24</f>
-        <v>0</v>
+        <f>'Hinterhölzl Stefan'!$C5-'Hinterhölzl Stefan'!$B5</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="G5" s="19">
+        <f>'Hinterhölzl Stefan'!$F5*24</f>
+        <v>5.0000000000000009</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -5477,17 +5667,23 @@
       <c r="W5" s="8"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9">
+        <v>43907</v>
+      </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="10">
-        <f>'Mitglied 3'!$C6-'Mitglied 3'!$B6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <f>'Mitglied 3'!$F6*24</f>
+        <f>'Hinterhölzl Stefan'!$C6-'Hinterhölzl Stefan'!$B6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <f>'Hinterhölzl Stefan'!$F6*24</f>
         <v>0</v>
       </c>
       <c r="H6" s="8"/>
@@ -5514,11 +5710,11 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="10">
-        <f>'Mitglied 3'!$C7-'Mitglied 3'!$B7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <f>'Mitglied 3'!$F7*24</f>
+        <f>'Hinterhölzl Stefan'!$C7-'Hinterhölzl Stefan'!$B7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
+        <f>'Hinterhölzl Stefan'!$F7*24</f>
         <v>0</v>
       </c>
       <c r="H7" s="8"/>
@@ -5545,11 +5741,11 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="10">
-        <f>'Mitglied 3'!$C8-'Mitglied 3'!$B8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <f>'Mitglied 3'!$F8*24</f>
+        <f>'Hinterhölzl Stefan'!$C8-'Hinterhölzl Stefan'!$B8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <f>'Hinterhölzl Stefan'!$F8*24</f>
         <v>0</v>
       </c>
       <c r="Q8" s="6"/>
@@ -5567,11 +5763,11 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="10">
-        <f>'Mitglied 3'!$C9-'Mitglied 3'!$B9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <f>'Mitglied 3'!$F9*24</f>
+        <f>'Hinterhölzl Stefan'!$C9-'Hinterhölzl Stefan'!$B9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <f>'Hinterhölzl Stefan'!$F9*24</f>
         <v>0</v>
       </c>
       <c r="H9" s="14"/>
@@ -5598,11 +5794,11 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="10">
-        <f>'Mitglied 3'!$C10-'Mitglied 3'!$B10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <f>'Mitglied 3'!$F10*24</f>
+        <f>'Hinterhölzl Stefan'!$C10-'Hinterhölzl Stefan'!$B10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <f>'Hinterhölzl Stefan'!$F10*24</f>
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
@@ -5629,11 +5825,11 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="10">
-        <f>'Mitglied 3'!$C11-'Mitglied 3'!$B11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <f>'Mitglied 3'!$F11*24</f>
+        <f>'Hinterhölzl Stefan'!$C11-'Hinterhölzl Stefan'!$B11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
+        <f>'Hinterhölzl Stefan'!$F11*24</f>
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
@@ -5660,11 +5856,11 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="10">
-        <f>'Mitglied 3'!$C12-'Mitglied 3'!$B12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <f>'Mitglied 3'!$F12*24</f>
+        <f>'Hinterhölzl Stefan'!$C12-'Hinterhölzl Stefan'!$B12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <f>'Hinterhölzl Stefan'!$F12*24</f>
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
@@ -5691,11 +5887,11 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="10">
-        <f>'Mitglied 3'!$C13-'Mitglied 3'!$B13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <f>'Mitglied 3'!$F13*24</f>
+        <f>'Hinterhölzl Stefan'!$C13-'Hinterhölzl Stefan'!$B13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
+        <f>'Hinterhölzl Stefan'!$F13*24</f>
         <v>0</v>
       </c>
       <c r="H13" s="14"/>
@@ -5722,11 +5918,11 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="10">
-        <f>'Mitglied 3'!$C14-'Mitglied 3'!$B14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <f>'Mitglied 3'!$F14*24</f>
+        <f>'Hinterhölzl Stefan'!$C14-'Hinterhölzl Stefan'!$B14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
+        <f>'Hinterhölzl Stefan'!$F14*24</f>
         <v>0</v>
       </c>
       <c r="H14" s="8"/>
@@ -5753,11 +5949,11 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="10">
-        <f>'Mitglied 3'!$C15-'Mitglied 3'!$B15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <f>'Mitglied 3'!$F15*24</f>
+        <f>'Hinterhölzl Stefan'!$C15-'Hinterhölzl Stefan'!$B15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
+        <f>'Hinterhölzl Stefan'!$F15*24</f>
         <v>0</v>
       </c>
       <c r="H15" s="14"/>
@@ -5784,11 +5980,11 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="10">
-        <f>'Mitglied 3'!$C16-'Mitglied 3'!$B16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <f>'Mitglied 3'!$F16*24</f>
+        <f>'Hinterhölzl Stefan'!$C16-'Hinterhölzl Stefan'!$B16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
+        <f>'Hinterhölzl Stefan'!$F16*24</f>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
@@ -5815,11 +6011,11 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="10">
-        <f>'Mitglied 3'!$C17-'Mitglied 3'!$B17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <f>'Mitglied 3'!$F17*24</f>
+        <f>'Hinterhölzl Stefan'!$C17-'Hinterhölzl Stefan'!$B17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <f>'Hinterhölzl Stefan'!$F17*24</f>
         <v>0</v>
       </c>
       <c r="H17" s="6"/>
@@ -5846,11 +6042,11 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="10">
-        <f>'Mitglied 3'!$C18-'Mitglied 3'!$B18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="20">
-        <f>'Mitglied 3'!$F18*24</f>
+        <f>'Hinterhölzl Stefan'!$C18-'Hinterhölzl Stefan'!$B18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
+        <f>'Hinterhölzl Stefan'!$F18*24</f>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
@@ -5877,11 +6073,11 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="10">
-        <f>'Mitglied 3'!$C19-'Mitglied 3'!$B19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="20">
-        <f>'Mitglied 3'!$F19*24</f>
+        <f>'Hinterhölzl Stefan'!$C19-'Hinterhölzl Stefan'!$B19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
+        <f>'Hinterhölzl Stefan'!$F19*24</f>
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
@@ -5908,11 +6104,11 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="10">
-        <f>'Mitglied 3'!$C20-'Mitglied 3'!$B20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="20">
-        <f>'Mitglied 3'!$F20*24</f>
+        <f>'Hinterhölzl Stefan'!$C20-'Hinterhölzl Stefan'!$B20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
+        <f>'Hinterhölzl Stefan'!$F20*24</f>
         <v>0</v>
       </c>
       <c r="H20" s="8"/>
@@ -5939,11 +6135,11 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="10">
-        <f>'Mitglied 3'!$C21-'Mitglied 3'!$B21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="20">
-        <f>'Mitglied 3'!$F21*24</f>
+        <f>'Hinterhölzl Stefan'!$C21-'Hinterhölzl Stefan'!$B21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
+        <f>'Hinterhölzl Stefan'!$F21*24</f>
         <v>0</v>
       </c>
       <c r="H21" s="8"/>
@@ -5970,11 +6166,11 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="10">
-        <f>'Mitglied 3'!$C22-'Mitglied 3'!$B22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="20">
-        <f>'Mitglied 3'!$F22*24</f>
+        <f>'Hinterhölzl Stefan'!$C22-'Hinterhölzl Stefan'!$B22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <f>'Hinterhölzl Stefan'!$F22*24</f>
         <v>0</v>
       </c>
       <c r="H22" s="8"/>
@@ -6001,11 +6197,11 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="10">
-        <f>'Mitglied 3'!$C23-'Mitglied 3'!$B23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="20">
-        <f>'Mitglied 3'!$F23*24</f>
+        <f>'Hinterhölzl Stefan'!$C23-'Hinterhölzl Stefan'!$B23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
+        <f>'Hinterhölzl Stefan'!$F23*24</f>
         <v>0</v>
       </c>
       <c r="H23" s="8"/>
@@ -6032,11 +6228,11 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="10">
-        <f>'Mitglied 3'!$C24-'Mitglied 3'!$B24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <f>'Mitglied 3'!$F24*24</f>
+        <f>'Hinterhölzl Stefan'!$C24-'Hinterhölzl Stefan'!$B24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <f>'Hinterhölzl Stefan'!$F24*24</f>
         <v>0</v>
       </c>
       <c r="H24" s="8"/>
@@ -6063,11 +6259,11 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="10">
-        <f>'Mitglied 3'!$C25-'Mitglied 3'!$B25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="20">
-        <f>'Mitglied 3'!$F25*24</f>
+        <f>'Hinterhölzl Stefan'!$C25-'Hinterhölzl Stefan'!$B25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
+        <f>'Hinterhölzl Stefan'!$F25*24</f>
         <v>0</v>
       </c>
       <c r="H25" s="8"/>
@@ -6089,16 +6285,16 @@
     </row>
     <row r="26" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="6"/>
       <c r="F26" s="10">
-        <f>'Mitglied 3'!$C26-'Mitglied 3'!$B26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <f>'Mitglied 3'!$F26*24</f>
+        <f>'Hinterhölzl Stefan'!$C26-'Hinterhölzl Stefan'!$B26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <f>'Hinterhölzl Stefan'!$F26*24</f>
         <v>0</v>
       </c>
       <c r="H26" s="8"/>
@@ -6120,16 +6316,16 @@
     </row>
     <row r="27" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="10">
-        <f>'Mitglied 3'!$C27-'Mitglied 3'!$B27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="20">
-        <f>'Mitglied 3'!$F27*24</f>
+        <f>'Hinterhölzl Stefan'!$C27-'Hinterhölzl Stefan'!$B27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
+        <f>'Hinterhölzl Stefan'!$F27*24</f>
         <v>0</v>
       </c>
       <c r="H27" s="8"/>
@@ -7120,10 +7316,10 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8 W8 L13 S13 L15 S15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q8 W8 L13 S13 L15 S15" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Messeunterlagen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E27" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Endabgabe"</formula1>
     </dataValidation>
   </dataValidations>
